--- a/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>138058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120875</v>
+        <v>120441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>158551</v>
+        <v>160193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2386358298532168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2089351614711825</v>
+        <v>0.2081856470605689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2740595471505716</v>
+        <v>0.2768968229642273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>514</v>
@@ -762,19 +762,19 @@
         <v>301294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>279265</v>
+        <v>281445</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>322987</v>
+        <v>324704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3665205850619677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3397231467205973</v>
+        <v>0.3423747752666306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3929097419697378</v>
+        <v>0.3949983905802424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>690</v>
@@ -783,19 +783,19 @@
         <v>439352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>410995</v>
+        <v>408891</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>471519</v>
+        <v>464851</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3136954951015036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.293449166622426</v>
+        <v>0.2919464965757473</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3366631790371208</v>
+        <v>0.3319019395170162</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>440471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>419978</v>
+        <v>418336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>457654</v>
+        <v>458088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7613641701467833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7259404528494283</v>
+        <v>0.7231031770357725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7910648385288175</v>
+        <v>0.7918143529394306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>913</v>
@@ -833,19 +833,19 @@
         <v>520744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>499051</v>
+        <v>497334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>542773</v>
+        <v>540593</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6334794149380323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6070902580302622</v>
+        <v>0.6050016094197567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6602768532794027</v>
+        <v>0.6576252247333693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1428</v>
@@ -854,19 +854,19 @@
         <v>961215</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929048</v>
+        <v>935716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>989572</v>
+        <v>991676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6863045048984964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6633368209628794</v>
+        <v>0.6680980604829836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7065508333775742</v>
+        <v>0.7080535034242527</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>234656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>207406</v>
+        <v>204952</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>270554</v>
+        <v>264652</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.105200377871402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09298362335558671</v>
+        <v>0.09188333096935201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1212940913061755</v>
+        <v>0.1186478100177957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>510</v>
@@ -979,19 +979,19 @@
         <v>361716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>333940</v>
+        <v>330341</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>394462</v>
+        <v>394952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1665826659150401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1537907254448244</v>
+        <v>0.1521332557570327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1816634178164436</v>
+        <v>0.1818890802499346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>753</v>
@@ -1000,19 +1000,19 @@
         <v>596373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>557948</v>
+        <v>551985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>646541</v>
+        <v>642353</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1354789499491099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.126749836951257</v>
+        <v>0.1253954019822864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1468756777734519</v>
+        <v>0.1459244137287715</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1995910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1960012</v>
+        <v>1965914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2023160</v>
+        <v>2025614</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.894799622128598</v>
+        <v>0.8947996221285979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8787059086938246</v>
+        <v>0.8813521899822044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9070163766444134</v>
+        <v>0.9081166690306481</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2411</v>
@@ -1050,19 +1050,19 @@
         <v>1809676</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1776930</v>
+        <v>1776440</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1837452</v>
+        <v>1841051</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8334173340849599</v>
+        <v>0.8334173340849598</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8183365821835562</v>
+        <v>0.818110919750065</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8462092745551756</v>
+        <v>0.8478667442429668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4160</v>
@@ -1071,19 +1071,19 @@
         <v>3805586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3755418</v>
+        <v>3759606</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3844011</v>
+        <v>3849974</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8645210500508899</v>
+        <v>0.8645210500508901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8531243222265477</v>
+        <v>0.8540755862712286</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8732501630487429</v>
+        <v>0.8746045980177137</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>84295</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66525</v>
+        <v>66585</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108004</v>
+        <v>104245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1184604578250928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09348807190524061</v>
+        <v>0.09357286955092281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1517790732621382</v>
+        <v>0.1464969771803316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -1196,19 +1196,19 @@
         <v>112670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95306</v>
+        <v>96075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131073</v>
+        <v>131056</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1533178858793483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1296899998142448</v>
+        <v>0.1307360217993693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1783604104427529</v>
+        <v>0.1783368014745361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -1217,19 +1217,19 @@
         <v>196965</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>173557</v>
+        <v>171086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>226727</v>
+        <v>224705</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1361698003475406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1199873377855081</v>
+        <v>0.1182790930976496</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1567458083984527</v>
+        <v>0.1553477324105991</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>627292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603583</v>
+        <v>607342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>645062</v>
+        <v>645002</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8815395421749074</v>
+        <v>0.881539542174907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8482209267378619</v>
+        <v>0.8535030228196681</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9065119280947593</v>
+        <v>0.9064271304490771</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>855</v>
@@ -1267,19 +1267,19 @@
         <v>622207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>603804</v>
+        <v>603821</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>639571</v>
+        <v>638802</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8466821141206516</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8216395895572469</v>
+        <v>0.8216631985254639</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8703100001857552</v>
+        <v>0.8692639782006302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1461</v>
@@ -1288,19 +1288,19 @@
         <v>1249499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1219737</v>
+        <v>1221759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1272907</v>
+        <v>1275378</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8638301996524594</v>
+        <v>0.8638301996524593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8432541916015472</v>
+        <v>0.8446522675894009</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8800126622144917</v>
+        <v>0.8817209069023504</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>457009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>417153</v>
+        <v>416604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>499569</v>
+        <v>501382</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.129806978416313</v>
+        <v>0.1298069784163131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1184864360927599</v>
+        <v>0.1183304482304215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1418954916196277</v>
+        <v>0.1424105249329928</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1173</v>
@@ -1413,19 +1413,19 @@
         <v>775680</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>729490</v>
+        <v>738278</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>820134</v>
+        <v>820253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2080514998024851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.19566255371323</v>
+        <v>0.198019602415188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2199748868944377</v>
+        <v>0.2200068060658489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1667</v>
@@ -1434,19 +1434,19 @@
         <v>1232689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1176224</v>
+        <v>1174416</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1293012</v>
+        <v>1294715</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1700497729986099</v>
+        <v>0.17004977299861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1622603982382269</v>
+        <v>0.1620109181232988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1783712899885425</v>
+        <v>0.178606249571923</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3063674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3021114</v>
+        <v>3019301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3103530</v>
+        <v>3104079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8701930215836869</v>
+        <v>0.8701930215836871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8581045083803724</v>
+        <v>0.8575894750670071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8815135639072404</v>
+        <v>0.8816695517695785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4179</v>
@@ -1484,19 +1484,19 @@
         <v>2952627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2908173</v>
+        <v>2908054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2998817</v>
+        <v>2990029</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7919485001975148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7800251131055622</v>
+        <v>0.7799931939341509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8043374462867697</v>
+        <v>0.8019803975848119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7049</v>
@@ -1505,19 +1505,19 @@
         <v>6016301</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5955978</v>
+        <v>5954275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6072766</v>
+        <v>6074574</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.82995022700139</v>
+        <v>0.8299502270013901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8216287100114574</v>
+        <v>0.8213937504280768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.837739601761773</v>
+        <v>0.8379890818767011</v>
       </c>
     </row>
     <row r="15">
